--- a/Processed/BT_Input_processed.xlsx
+++ b/Processed/BT_Input_processed.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Infrastructure\Excel_per_type\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\TRIPI-GH-v100\Processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8B8E1B-718A-47B2-B39E-D2889BF9ED61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC1EC2FD-8C6D-4AD1-8BBF-C2C0254FCE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{64410785-1045-4FB5-B112-CE42E3E4F251}"/>
+    <workbookView xWindow="9840" yWindow="570" windowWidth="14370" windowHeight="19110" xr2:uid="{64410785-1045-4FB5-B112-CE42E3E4F251}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bridges" sheetId="3" r:id="rId1"/>
-    <sheet name="Tunnels" sheetId="2" r:id="rId2"/>
+    <sheet name="Coversheet" sheetId="4" r:id="rId1"/>
+    <sheet name="Bridges" sheetId="3" r:id="rId2"/>
+    <sheet name="Tunnels" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="205">
   <si>
     <t>highway</t>
   </si>
@@ -613,13 +614,65 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Title:</t>
+  </si>
+  <si>
+    <t>TRIPI: A global dataset and codebase of the Total Resources In Physical Infrastructure encompassing road, rail, and parking.</t>
+  </si>
+  <si>
+    <t>Project:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CircoMod – Circular Economy Modelling for Climate Change Mitigation 101056868 </t>
+  </si>
+  <si>
+    <t>Content:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Van Engelenburg, M., Deetman, S., Fishman, T., Behrens, P., &amp; van der Voet, E. (2024). TRIPI: A global dataset and codebase of the Total Resources In Physical Infrastructure encompassing road, rail, and parking. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In review</t>
+    </r>
+  </si>
+  <si>
+    <t>Contact:</t>
+  </si>
+  <si>
+    <t>Martijn van Engelenburg</t>
+  </si>
+  <si>
+    <t>m.van.engelenburg@cml.leidenuniv.nl</t>
+  </si>
+  <si>
+    <t>CML</t>
+  </si>
+  <si>
+    <t>Leiden University</t>
+  </si>
+  <si>
+    <t>Bridges and tunnels length v.1.0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,6 +682,33 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -679,20 +759,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="ANCLAS,REZONES Y SUS PARTES,DE FUNDICION,DE HIERRO O DE ACERO" xfId="2" xr:uid="{4891F95F-9D6A-427C-935D-BE2BA43266E0}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2 2" xfId="3" xr:uid="{18253325-83BD-40D9-AB82-93F9B2CF56BD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -705,6 +794,133 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>43139</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{429FD772-D078-4A78-A338-18229D6A62AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="190501"/>
+          <a:ext cx="3091139" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="CircoMod – Circular Economy Modelling for Climate Change Mitigation –  iamconsortium">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{550B5E37-B0C2-43F8-B3F7-BAA571E31162}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3686175" y="190500"/>
+          <a:ext cx="2600325" cy="1715303"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1003,16 +1219,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406F7A1C-0150-419A-A7A3-D52124E044EF}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B12:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{47622569-0555-4A26-BA54-F69C58B4E29B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6213804-4F42-429E-8E2B-545295D20F8C}">
   <dimension ref="A1:Q174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1065,7 +1371,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1101,7 +1407,7 @@
         <v>171.32400000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1146,7 +1452,7 @@
         <v>123.47600000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1197,7 +1503,7 @@
         <v>510.38599999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1239,7 +1545,7 @@
         <v>7.5759999999999987</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1284,7 +1590,7 @@
         <v>79.100999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1335,7 +1641,7 @@
         <v>1025.7290000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1380,7 +1686,7 @@
         <v>52.576999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1434,7 +1740,7 @@
         <v>1762.2059999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1485,7 +1791,7 @@
         <v>1183.6200000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1533,7 +1839,7 @@
         <v>146.90199999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1560,7 +1866,7 @@
         <v>5.2269999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1608,7 +1914,7 @@
         <v>848.59100000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1653,7 +1959,7 @@
         <v>359.697</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1704,7 +2010,7 @@
         <v>544.428</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>182</v>
       </c>
@@ -1734,7 +2040,7 @@
         <v>8.9749999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1764,7 +2070,7 @@
         <v>22.722000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1797,7 +2103,7 @@
         <v>40.474000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1845,7 +2151,7 @@
         <v>224.28700000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1890,7 +2196,7 @@
         <v>183.238</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -1920,7 +2226,7 @@
         <v>38.316999999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -1971,7 +2277,7 @@
         <v>2264.1610000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -2022,7 +2328,7 @@
         <v>410.33199999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -2055,7 +2361,7 @@
         <v>45.499000000000009</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
@@ -2085,7 +2391,7 @@
         <v>27.399000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -2130,7 +2436,7 @@
         <v>165.51000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -2172,7 +2478,7 @@
         <v>77.657999999999987</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -2226,7 +2532,7 @@
         <v>2631.8939999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
@@ -2256,7 +2562,7 @@
         <v>17.231999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
@@ -2283,7 +2589,7 @@
         <v>12.872</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
@@ -2313,7 +2619,7 @@
         <v>18.707999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -2364,7 +2670,7 @@
         <v>435.54599999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -2418,7 +2724,7 @@
         <v>103355.126</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2460,7 +2766,7 @@
         <v>748.76300000000015</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>183</v>
       </c>
@@ -2484,7 +2790,7 @@
         <v>1.226</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
@@ -2517,7 +2823,7 @@
         <v>38.290999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
@@ -2553,7 +2859,7 @@
         <v>108.64700000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>51</v>
       </c>
@@ -2577,7 +2883,7 @@
         <v>0.44700000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>52</v>
       </c>
@@ -2628,7 +2934,7 @@
         <v>331.25799999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>53</v>
       </c>
@@ -2673,7 +2979,7 @@
         <v>164.90900000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
@@ -2712,7 +3018,7 @@
         <v>43.969000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
@@ -2763,7 +3069,7 @@
         <v>802.03199999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -2814,7 +3120,7 @@
         <v>269.78499999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>57</v>
       </c>
@@ -2844,7 +3150,7 @@
         <v>3.464</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>58</v>
       </c>
@@ -2892,7 +3198,7 @@
         <v>284.22399999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>59</v>
       </c>
@@ -2943,7 +3249,7 @@
         <v>1538.6270000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>60</v>
       </c>
@@ -2979,7 +3285,7 @@
         <v>16.739999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
@@ -3006,7 +3312,7 @@
         <v>25.576000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
@@ -3048,7 +3354,7 @@
         <v>46.585999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>63</v>
       </c>
@@ -3090,7 +3396,7 @@
         <v>213.762</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
@@ -3117,7 +3423,7 @@
         <v>4.7149999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>65</v>
       </c>
@@ -3147,7 +3453,7 @@
         <v>22.946999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>66</v>
       </c>
@@ -3195,7 +3501,7 @@
         <v>560.46600000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
@@ -3249,7 +3555,7 @@
         <v>4460.6180000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>68</v>
       </c>
@@ -3285,7 +3591,7 @@
         <v>29.503999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>69</v>
       </c>
@@ -3336,7 +3642,7 @@
         <v>2124.8650000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>70</v>
       </c>
@@ -3387,7 +3693,7 @@
         <v>988.23400000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>71</v>
       </c>
@@ -3441,7 +3747,7 @@
         <v>5271.4059999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>72</v>
       </c>
@@ -3483,7 +3789,7 @@
         <v>71.331000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>73</v>
       </c>
@@ -3537,7 +3843,7 @@
         <v>4447.2839999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>74</v>
       </c>
@@ -3588,7 +3894,7 @@
         <v>572.78400000000011</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>75</v>
       </c>
@@ -3615,7 +3921,7 @@
         <v>1.9819999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>76</v>
       </c>
@@ -3666,7 +3972,7 @@
         <v>119.69199999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
@@ -3699,7 +4005,7 @@
         <v>66.048000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>184</v>
       </c>
@@ -3723,7 +4029,7 @@
         <v>3.6989999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
@@ -3771,7 +4077,7 @@
         <v>164.72800000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -3822,7 +4128,7 @@
         <v>362.15899999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
@@ -3861,7 +4167,7 @@
         <v>47.947000000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
@@ -3915,7 +4221,7 @@
         <v>10481.243</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
@@ -3966,7 +4272,7 @@
         <v>4546.0510000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
@@ -4020,7 +4326,7 @@
         <v>1296.0889999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
@@ -4071,7 +4377,7 @@
         <v>460.62800000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
@@ -4119,7 +4425,7 @@
         <v>455.15300000000008</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
@@ -4170,7 +4476,7 @@
         <v>197.28700000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
@@ -4221,7 +4527,7 @@
         <v>8168.62</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
@@ -4263,7 +4569,7 @@
         <v>42.234999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
@@ -4302,7 +4608,7 @@
         <v>26.077999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
@@ -4353,7 +4659,7 @@
         <v>19255.739000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
@@ -4398,7 +4704,7 @@
         <v>64.904000000000011</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
@@ -4449,7 +4755,7 @@
         <v>348.99500000000006</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
@@ -4497,7 +4803,7 @@
         <v>161.37699999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>185</v>
       </c>
@@ -4518,7 +4824,7 @@
         <v>2.6390000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>94</v>
       </c>
@@ -4560,7 +4866,7 @@
         <v>65.600999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>95</v>
       </c>
@@ -4602,7 +4908,7 @@
         <v>82.449000000000012</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>96</v>
       </c>
@@ -4644,7 +4950,7 @@
         <v>135.16999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>97</v>
       </c>
@@ -4689,7 +4995,7 @@
         <v>102.44900000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>98</v>
       </c>
@@ -4737,7 +5043,7 @@
         <v>75.441000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>99</v>
       </c>
@@ -4767,7 +5073,7 @@
         <v>24.492999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>100</v>
       </c>
@@ -4797,7 +5103,7 @@
         <v>17.099</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>101</v>
       </c>
@@ -4830,7 +5136,7 @@
         <v>55.766000000000005</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>102</v>
       </c>
@@ -4857,7 +5163,7 @@
         <v>2.9889999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>103</v>
       </c>
@@ -4902,7 +5208,7 @@
         <v>101.68300000000004</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>104</v>
       </c>
@@ -4947,7 +5253,7 @@
         <v>52.362000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>105</v>
       </c>
@@ -4992,7 +5298,7 @@
         <v>90.466000000000008</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>106</v>
       </c>
@@ -5022,7 +5328,7 @@
         <v>169.31700000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>107</v>
       </c>
@@ -5052,7 +5358,7 @@
         <v>76.467000000000013</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>108</v>
       </c>
@@ -5100,7 +5406,7 @@
         <v>2252.9899999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>109</v>
       </c>
@@ -5127,7 +5433,7 @@
         <v>5.3909999999999991</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>110</v>
       </c>
@@ -5163,7 +5469,7 @@
         <v>73.867999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>111</v>
       </c>
@@ -5196,7 +5502,7 @@
         <v>6.1909999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>186</v>
       </c>
@@ -5208,7 +5514,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>112</v>
       </c>
@@ -5241,7 +5547,7 @@
         <v>12.26</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>113</v>
       </c>
@@ -5277,7 +5583,7 @@
         <v>20.146999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>114</v>
       </c>
@@ -5331,7 +5637,7 @@
         <v>3444.8829999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>115</v>
       </c>
@@ -5355,7 +5661,7 @@
         <v>1.141</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>116</v>
       </c>
@@ -5391,7 +5697,7 @@
         <v>59.441000000000003</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>117</v>
       </c>
@@ -5418,7 +5724,7 @@
         <v>1.1619999999999997</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
@@ -5460,7 +5766,7 @@
         <v>64.199999999999989</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>119</v>
       </c>
@@ -5502,7 +5808,7 @@
         <v>49.105999999999995</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>120</v>
       </c>
@@ -5544,7 +5850,7 @@
         <v>392.30500000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>121</v>
       </c>
@@ -5577,7 +5883,7 @@
         <v>107.452</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>122</v>
       </c>
@@ -5619,7 +5925,7 @@
         <v>475.64500000000004</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
@@ -5655,7 +5961,7 @@
         <v>53.109000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>124</v>
       </c>
@@ -5691,7 +5997,7 @@
         <v>251.03699999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>125</v>
       </c>
@@ -5745,7 +6051,7 @@
         <v>1129.0309999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>126</v>
       </c>
@@ -5796,7 +6102,7 @@
         <v>399.52600000000007</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
@@ -5835,7 +6141,7 @@
         <v>64.465000000000003</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>128</v>
       </c>
@@ -5868,7 +6174,7 @@
         <v>28.896000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>129</v>
       </c>
@@ -5919,7 +6225,7 @@
         <v>541.22799999999984</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>130</v>
       </c>
@@ -5967,7 +6273,7 @@
         <v>544.73399999999992</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>131</v>
       </c>
@@ -6018,7 +6324,7 @@
         <v>734.87099999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>132</v>
       </c>
@@ -6069,7 +6375,7 @@
         <v>1244.6590000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>133</v>
       </c>
@@ -6084,7 +6390,7 @@
         <v>2.1429999999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>134</v>
       </c>
@@ -6117,7 +6423,7 @@
         <v>55.670999999999992</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>135</v>
       </c>
@@ -6159,7 +6465,7 @@
         <v>133.93</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>136</v>
       </c>
@@ -6210,7 +6516,7 @@
         <v>334.22399999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>137</v>
       </c>
@@ -6264,7 +6570,7 @@
         <v>1209.7659999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>138</v>
       </c>
@@ -6315,7 +6621,7 @@
         <v>1581.8110000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>139</v>
       </c>
@@ -6366,7 +6672,7 @@
         <v>1343.2259999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>140</v>
       </c>
@@ -6417,7 +6723,7 @@
         <v>840.52199999999993</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>141</v>
       </c>
@@ -6468,7 +6774,7 @@
         <v>4936.7810000000009</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>142</v>
       </c>
@@ -6498,7 +6804,7 @@
         <v>15.482000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>187</v>
       </c>
@@ -6525,7 +6831,7 @@
         <v>2.8449999999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>144</v>
       </c>
@@ -6552,7 +6858,7 @@
         <v>1.1919999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>145</v>
       </c>
@@ -6588,7 +6894,7 @@
         <v>55.650000000000006</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>146</v>
       </c>
@@ -6639,7 +6945,7 @@
         <v>344.81900000000007</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>147</v>
       </c>
@@ -6666,7 +6972,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>148</v>
       </c>
@@ -6696,7 +7002,7 @@
         <v>19.110999999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>149</v>
       </c>
@@ -6747,7 +7053,7 @@
         <v>484.56999999999994</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>150</v>
       </c>
@@ -6798,7 +7104,7 @@
         <v>206.01300000000003</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>188</v>
       </c>
@@ -6822,7 +7128,7 @@
         <v>5.202</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>151</v>
       </c>
@@ -6855,7 +7161,7 @@
         <v>17.175999999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>152</v>
       </c>
@@ -6909,7 +7215,7 @@
         <v>1048.4190000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>153</v>
       </c>
@@ -6960,7 +7266,7 @@
         <v>5780.1239999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>154</v>
       </c>
@@ -6990,7 +7296,7 @@
         <v>15.608000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>155</v>
       </c>
@@ -7041,7 +7347,7 @@
         <v>3961.1229999999996</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>156</v>
       </c>
@@ -7086,7 +7392,7 @@
         <v>347.28899999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>157</v>
       </c>
@@ -7122,7 +7428,7 @@
         <v>91.149000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>158</v>
       </c>
@@ -7152,7 +7458,7 @@
         <v>21.233000000000004</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>159</v>
       </c>
@@ -7188,7 +7494,7 @@
         <v>25.401999999999994</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>160</v>
       </c>
@@ -7239,7 +7545,7 @@
         <v>889.98399999999992</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>161</v>
       </c>
@@ -7290,7 +7596,7 @@
         <v>822.66700000000003</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>162</v>
       </c>
@@ -7341,7 +7647,7 @@
         <v>140.53300000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>163</v>
       </c>
@@ -7392,7 +7698,7 @@
         <v>3943.6680000000006</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>164</v>
       </c>
@@ -7428,7 +7734,7 @@
         <v>98.712999999999994</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>165</v>
       </c>
@@ -7470,7 +7776,7 @@
         <v>104.98700000000002</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>166</v>
       </c>
@@ -7521,7 +7827,7 @@
         <v>3589.902</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>167</v>
       </c>
@@ -7551,7 +7857,7 @@
         <v>25.823</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>168</v>
       </c>
@@ -7572,7 +7878,7 @@
         <v>1.444</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>169</v>
       </c>
@@ -7620,7 +7926,7 @@
         <v>191.92899999999995</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>170</v>
       </c>
@@ -7674,7 +7980,7 @@
         <v>2062.6989999999996</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>171</v>
       </c>
@@ -7719,7 +8025,7 @@
         <v>126.57199999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>189</v>
       </c>
@@ -7731,7 +8037,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>172</v>
       </c>
@@ -7773,7 +8079,7 @@
         <v>51.702000000000005</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>173</v>
       </c>
@@ -7824,7 +8130,7 @@
         <v>966.79399999999987</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>174</v>
       </c>
@@ -7860,7 +8166,7 @@
         <v>137.791</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>175</v>
       </c>
@@ -7914,7 +8220,7 @@
         <v>30593.337000000003</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>176</v>
       </c>
@@ -7953,7 +8259,7 @@
         <v>370.35700000000003</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>190</v>
       </c>
@@ -7980,7 +8286,7 @@
         <v>3.165</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>177</v>
       </c>
@@ -8031,7 +8337,7 @@
         <v>303.13399999999996</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>178</v>
       </c>
@@ -8082,7 +8388,7 @@
         <v>3333.0869999999995</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>179</v>
       </c>
@@ -8118,7 +8424,7 @@
         <v>43.559000000000005</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>180</v>
       </c>
@@ -8148,7 +8454,7 @@
         <v>75.78</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>181</v>
       </c>
@@ -8183,7 +8489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE4AAC4-7368-41AE-B18F-8A388778617E}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
@@ -8191,9 +8497,9 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8246,7 +8552,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -8273,7 +8579,7 @@
         <v>5.0629999999999988</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -8315,7 +8621,7 @@
         <v>25.712999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -8363,7 +8669,7 @@
         <v>100.37100000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -8396,7 +8702,7 @@
         <v>16.317999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -8426,7 +8732,7 @@
         <v>2.1360000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -8474,7 +8780,7 @@
         <v>43.254999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -8510,7 +8816,7 @@
         <v>9.7909999999999986</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -8558,7 +8864,7 @@
         <v>245.608</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -8600,7 +8906,7 @@
         <v>708.76699999999983</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -8648,7 +8954,7 @@
         <v>17.335999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -8660,7 +8966,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -8690,7 +8996,7 @@
         <v>8.4080000000000013</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -8723,7 +9029,7 @@
         <v>9.8109999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -8774,7 +9080,7 @@
         <v>138.428</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -8786,7 +9092,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -8798,7 +9104,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -8837,7 +9143,7 @@
         <v>9.5599999999999987</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -8879,7 +9185,7 @@
         <v>81.312999999999988</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -8900,7 +9206,7 @@
         <v>0.74800000000000011</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -8948,7 +9254,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -8990,7 +9296,7 @@
         <v>40.537999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -9008,7 +9314,7 @@
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -9023,7 +9329,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -9050,7 +9356,7 @@
         <v>3.927</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -9083,7 +9389,7 @@
         <v>1.3029999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
@@ -9137,7 +9443,7 @@
         <v>117.04300000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
@@ -9155,7 +9461,7 @@
         <v>1.048</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -9167,7 +9473,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
@@ -9185,7 +9491,7 @@
         <v>5.4949999999999992</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
@@ -9233,7 +9539,7 @@
         <v>133.76299999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
@@ -9287,7 +9593,7 @@
         <v>32075.890999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -9329,7 +9635,7 @@
         <v>156.42400000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
@@ -9341,7 +9647,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
@@ -9362,7 +9668,7 @@
         <v>0.78100000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
@@ -9371,7 +9677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
@@ -9416,7 +9722,7 @@
         <v>139.553</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
@@ -9449,7 +9755,7 @@
         <v>4.2840000000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
@@ -9491,7 +9797,7 @@
         <v>8.2390000000000008</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
@@ -9542,7 +9848,7 @@
         <v>94.558999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -9584,7 +9890,7 @@
         <v>44.527000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>57</v>
       </c>
@@ -9611,7 +9917,7 @@
         <v>0.56600000000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>58</v>
       </c>
@@ -9650,7 +9956,7 @@
         <v>33.569999999999993</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>59</v>
       </c>
@@ -9698,7 +10004,7 @@
         <v>78.658000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>60</v>
       </c>
@@ -9725,7 +10031,7 @@
         <v>0.35899999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>61</v>
       </c>
@@ -9734,7 +10040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>62</v>
       </c>
@@ -9758,7 +10064,7 @@
         <v>6.5109999999999992</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>63</v>
       </c>
@@ -9794,7 +10100,7 @@
         <v>8.8320000000000025</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>64</v>
       </c>
@@ -9812,7 +10118,7 @@
         <v>57.753</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>65</v>
       </c>
@@ -9824,7 +10130,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>66</v>
       </c>
@@ -9869,7 +10175,7 @@
         <v>119.52500000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>67</v>
       </c>
@@ -9923,7 +10229,7 @@
         <v>1036.652</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>68</v>
       </c>
@@ -9938,7 +10244,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>69</v>
       </c>
@@ -9989,7 +10295,7 @@
         <v>291.84500000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>70</v>
       </c>
@@ -10031,7 +10337,7 @@
         <v>51.347999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>71</v>
       </c>
@@ -10085,7 +10391,7 @@
         <v>1017.8740000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>72</v>
       </c>
@@ -10112,7 +10418,7 @@
         <v>1.6970000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>73</v>
       </c>
@@ -10163,7 +10469,7 @@
         <v>500.00900000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>74</v>
       </c>
@@ -10214,7 +10520,7 @@
         <v>301.029</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>75</v>
       </c>
@@ -10229,7 +10535,7 @@
         <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>76</v>
       </c>
@@ -10277,7 +10583,7 @@
         <v>14.350000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>77</v>
       </c>
@@ -10295,7 +10601,7 @@
         <v>0.46599999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>78</v>
       </c>
@@ -10334,7 +10640,7 @@
         <v>9.0489999999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>79</v>
       </c>
@@ -10379,7 +10685,7 @@
         <v>23.465</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>80</v>
       </c>
@@ -10412,7 +10718,7 @@
         <v>67.497</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>81</v>
       </c>
@@ -10463,7 +10769,7 @@
         <v>400.71500000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>82</v>
       </c>
@@ -10514,7 +10820,7 @@
         <v>79.364000000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>83</v>
       </c>
@@ -10568,7 +10874,7 @@
         <v>410.8119999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>84</v>
       </c>
@@ -10613,7 +10919,7 @@
         <v>43.427000000000007</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>85</v>
       </c>
@@ -10652,7 +10958,7 @@
         <v>39.750999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>86</v>
       </c>
@@ -10703,7 +11009,7 @@
         <v>65.620999999999995</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>87</v>
       </c>
@@ -10754,7 +11060,7 @@
         <v>3711.0950000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>88</v>
       </c>
@@ -10784,7 +11090,7 @@
         <v>0.69899999999999995</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>89</v>
       </c>
@@ -10817,7 +11123,7 @@
         <v>3.1680000000000006</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>90</v>
       </c>
@@ -10865,7 +11171,7 @@
         <v>8309.5929999999989</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>91</v>
       </c>
@@ -10910,7 +11216,7 @@
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>92</v>
       </c>
@@ -10955,7 +11261,7 @@
         <v>19.684000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>93</v>
       </c>
@@ -10991,7 +11297,7 @@
         <v>8.7219999999999995</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>94</v>
       </c>
@@ -11030,7 +11336,7 @@
         <v>6.0670000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>95</v>
       </c>
@@ -11066,7 +11372,7 @@
         <v>6.0290000000000008</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>96</v>
       </c>
@@ -11093,7 +11399,7 @@
         <v>3.2279999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>97</v>
       </c>
@@ -11126,7 +11432,7 @@
         <v>9.3759999999999994</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>98</v>
       </c>
@@ -11168,7 +11474,7 @@
         <v>18.374999999999996</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>99</v>
       </c>
@@ -11189,7 +11495,7 @@
         <v>0.6150000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>100</v>
       </c>
@@ -11204,7 +11510,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>101</v>
       </c>
@@ -11219,7 +11525,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>102</v>
       </c>
@@ -11240,7 +11546,7 @@
         <v>1.508</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>103</v>
       </c>
@@ -11282,7 +11588,7 @@
         <v>8.8289999999999988</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>104</v>
       </c>
@@ -11324,7 +11630,7 @@
         <v>38.096000000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>105</v>
       </c>
@@ -11363,7 +11669,7 @@
         <v>10.512</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>106</v>
       </c>
@@ -11387,7 +11693,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>107</v>
       </c>
@@ -11405,7 +11711,7 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>108</v>
       </c>
@@ -11453,7 +11759,7 @@
         <v>138.04400000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>109</v>
       </c>
@@ -11462,7 +11768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>110</v>
       </c>
@@ -11480,7 +11786,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>111</v>
       </c>
@@ -11513,7 +11819,7 @@
         <v>5.830000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>112</v>
       </c>
@@ -11531,7 +11837,7 @@
         <v>9.1000000000000011E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>113</v>
       </c>
@@ -11552,7 +11858,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>114</v>
       </c>
@@ -11603,7 +11909,7 @@
         <v>276.37900000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>115</v>
       </c>
@@ -11612,7 +11918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>116</v>
       </c>
@@ -11642,7 +11948,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>117</v>
       </c>
@@ -11675,7 +11981,7 @@
         <v>8.4559999999999995</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>118</v>
       </c>
@@ -11711,7 +12017,7 @@
         <v>10.416</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>119</v>
       </c>
@@ -11744,7 +12050,7 @@
         <v>69.908999999999992</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>120</v>
       </c>
@@ -11786,7 +12092,7 @@
         <v>33.781999999999989</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>121</v>
       </c>
@@ -11807,7 +12113,7 @@
         <v>0.26900000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>122</v>
       </c>
@@ -11840,7 +12146,7 @@
         <v>13.947999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>123</v>
       </c>
@@ -11864,7 +12170,7 @@
         <v>0.94900000000000007</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>124</v>
       </c>
@@ -11894,7 +12200,7 @@
         <v>1.4289999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>125</v>
       </c>
@@ -11942,7 +12248,7 @@
         <v>241.36300000000003</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>126</v>
       </c>
@@ -11984,7 +12290,7 @@
         <v>27.771000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>127</v>
       </c>
@@ -11999,7 +12305,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>128</v>
       </c>
@@ -12020,7 +12326,7 @@
         <v>0.628</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>129</v>
       </c>
@@ -12056,7 +12362,7 @@
         <v>3.1210000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>130</v>
       </c>
@@ -12095,7 +12401,7 @@
         <v>88.748999999999995</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>131</v>
       </c>
@@ -12143,7 +12449,7 @@
         <v>1686.2739999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>132</v>
       </c>
@@ -12194,7 +12500,7 @@
         <v>106.71199999999997</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>133</v>
       </c>
@@ -12206,7 +12512,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>134</v>
       </c>
@@ -12233,7 +12539,7 @@
         <v>1.218</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>135</v>
       </c>
@@ -12263,7 +12569,7 @@
         <v>4.3469999999999995</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>136</v>
       </c>
@@ -12308,7 +12614,7 @@
         <v>45.677</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>137</v>
       </c>
@@ -12356,7 +12662,7 @@
         <v>27.414000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>138</v>
       </c>
@@ -12407,7 +12713,7 @@
         <v>159.96300000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>139</v>
       </c>
@@ -12458,7 +12764,7 @@
         <v>273.488</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>140</v>
       </c>
@@ -12497,7 +12803,7 @@
         <v>37.348999999999997</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>141</v>
       </c>
@@ -12545,7 +12851,7 @@
         <v>240.34500000000006</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>142</v>
       </c>
@@ -12554,7 +12860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>143</v>
       </c>
@@ -12563,7 +12869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>144</v>
       </c>
@@ -12578,7 +12884,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>145</v>
       </c>
@@ -12608,7 +12914,7 @@
         <v>2.5009999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>146</v>
       </c>
@@ -12650,7 +12956,7 @@
         <v>45.318000000000005</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>147</v>
       </c>
@@ -12659,7 +12965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>148</v>
       </c>
@@ -12671,7 +12977,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>149</v>
       </c>
@@ -12713,7 +13019,7 @@
         <v>50.302999999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>150</v>
       </c>
@@ -12761,7 +13067,7 @@
         <v>76.058000000000021</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>151</v>
       </c>
@@ -12773,7 +13079,7 @@
         <v>0.58199999999999996</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>152</v>
       </c>
@@ -12818,7 +13124,7 @@
         <v>33.237000000000009</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>153</v>
       </c>
@@ -12869,7 +13175,7 @@
         <v>2968.9479999999994</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>154</v>
       </c>
@@ -12878,7 +13184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>155</v>
       </c>
@@ -12929,7 +13235,7 @@
         <v>1465.8440000000003</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>156</v>
       </c>
@@ -12962,7 +13268,7 @@
         <v>12.386999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>157</v>
       </c>
@@ -12986,7 +13292,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>158</v>
       </c>
@@ -13001,7 +13307,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>159</v>
       </c>
@@ -13022,7 +13328,7 @@
         <v>0.47600000000000003</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>160</v>
       </c>
@@ -13073,7 +13379,7 @@
         <v>143.57900000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>161</v>
       </c>
@@ -13124,7 +13430,7 @@
         <v>825.43100000000004</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>162</v>
       </c>
@@ -13169,7 +13475,7 @@
         <v>11.129999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>163</v>
       </c>
@@ -13220,7 +13526,7 @@
         <v>422.07300000000004</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>164</v>
       </c>
@@ -13250,7 +13556,7 @@
         <v>27.525000000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>165</v>
       </c>
@@ -13277,7 +13583,7 @@
         <v>2.0640000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>166</v>
       </c>
@@ -13325,7 +13631,7 @@
         <v>35.518999999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>167</v>
       </c>
@@ -13337,7 +13643,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>168</v>
       </c>
@@ -13349,7 +13655,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>169</v>
       </c>
@@ -13385,7 +13691,7 @@
         <v>5.6840000000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>170</v>
       </c>
@@ -13436,7 +13742,7 @@
         <v>958.59799999999996</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>171</v>
       </c>
@@ -13466,7 +13772,7 @@
         <v>4.1159999999999997</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>172</v>
       </c>
@@ -13490,7 +13796,7 @@
         <v>2.528</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>173</v>
       </c>
@@ -13532,7 +13838,7 @@
         <v>38.786999999999992</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>174</v>
       </c>
@@ -13562,7 +13868,7 @@
         <v>1.2829999999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>175</v>
       </c>
@@ -13616,7 +13922,7 @@
         <v>903.48699999999985</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>176</v>
       </c>
@@ -13649,7 +13955,7 @@
         <v>9.2959999999999994</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>177</v>
       </c>
@@ -13697,7 +14003,7 @@
         <v>34.53799999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>178</v>
       </c>
@@ -13745,7 +14051,7 @@
         <v>100.014</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>179</v>
       </c>
@@ -13775,7 +14081,7 @@
         <v>16.936999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>180</v>
       </c>
@@ -13793,7 +14099,7 @@
         <v>0.71799999999999997</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>181</v>
       </c>
